--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/农副食品加工业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/农副食品加工业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1489 +478,1489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.1982</v>
+        <v>100.5551</v>
       </c>
       <c r="C2" t="n">
-        <v>87.7103</v>
+        <v>91.5826</v>
       </c>
       <c r="D2" t="n">
-        <v>100.6063</v>
+        <v>99.3348</v>
       </c>
       <c r="E2" t="n">
-        <v>93.28919999999999</v>
+        <v>91.73399999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>98.78440000000001</v>
+        <v>100.2955</v>
       </c>
       <c r="G2" t="n">
-        <v>100.614</v>
+        <v>97.3712</v>
       </c>
       <c r="H2" t="n">
-        <v>101.8542</v>
+        <v>102.0858</v>
       </c>
       <c r="I2" t="n">
-        <v>99.0754</v>
+        <v>102.3361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.5785</v>
+        <v>100.626</v>
       </c>
       <c r="C3" t="n">
-        <v>87.94</v>
+        <v>90.4927</v>
       </c>
       <c r="D3" t="n">
-        <v>100.2089</v>
+        <v>98.4614</v>
       </c>
       <c r="E3" t="n">
-        <v>93.499</v>
+        <v>91.0985</v>
       </c>
       <c r="F3" t="n">
-        <v>98.4969</v>
+        <v>100.2011</v>
       </c>
       <c r="G3" t="n">
-        <v>100.2702</v>
+        <v>96.6289</v>
       </c>
       <c r="H3" t="n">
-        <v>101.4518</v>
+        <v>101.6822</v>
       </c>
       <c r="I3" t="n">
-        <v>98.9723</v>
+        <v>102.0259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.6522</v>
+        <v>99.9872</v>
       </c>
       <c r="C4" t="n">
-        <v>90.8176</v>
+        <v>91.1161</v>
       </c>
       <c r="D4" t="n">
-        <v>99.3048</v>
+        <v>98.8599</v>
       </c>
       <c r="E4" t="n">
-        <v>92.84350000000001</v>
+        <v>91.68940000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>98.5012</v>
+        <v>99.4842</v>
       </c>
       <c r="G4" t="n">
-        <v>100.603</v>
+        <v>97.55759999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>101.2036</v>
+        <v>101.6394</v>
       </c>
       <c r="I4" t="n">
-        <v>98.1066</v>
+        <v>100.2965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.5551</v>
+        <v>99.9777</v>
       </c>
       <c r="C5" t="n">
-        <v>91.5826</v>
+        <v>91.1442</v>
       </c>
       <c r="D5" t="n">
-        <v>99.3348</v>
+        <v>100.2515</v>
       </c>
       <c r="E5" t="n">
-        <v>91.73399999999999</v>
+        <v>92.98990000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>100.2955</v>
+        <v>99.6957</v>
       </c>
       <c r="G5" t="n">
-        <v>97.3712</v>
+        <v>97.81480000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>102.0858</v>
+        <v>101.6881</v>
       </c>
       <c r="I5" t="n">
-        <v>102.3361</v>
+        <v>99.77379999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.626</v>
+        <v>100.6342</v>
       </c>
       <c r="C6" t="n">
-        <v>90.4927</v>
+        <v>91.82510000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>98.4614</v>
+        <v>101.5473</v>
       </c>
       <c r="E6" t="n">
-        <v>91.0985</v>
+        <v>94.4374</v>
       </c>
       <c r="F6" t="n">
-        <v>100.2011</v>
+        <v>99.1955</v>
       </c>
       <c r="G6" t="n">
-        <v>96.6289</v>
+        <v>97.8396</v>
       </c>
       <c r="H6" t="n">
-        <v>101.6822</v>
+        <v>102.0156</v>
       </c>
       <c r="I6" t="n">
-        <v>102.0259</v>
+        <v>100.0819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.9872</v>
+        <v>101.2263</v>
       </c>
       <c r="C7" t="n">
-        <v>91.1161</v>
+        <v>91.8678</v>
       </c>
       <c r="D7" t="n">
-        <v>98.8599</v>
+        <v>101.4436</v>
       </c>
       <c r="E7" t="n">
-        <v>91.68940000000001</v>
+        <v>94.48820000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>99.4842</v>
+        <v>99.1879</v>
       </c>
       <c r="G7" t="n">
-        <v>97.55759999999999</v>
+        <v>102.9036</v>
       </c>
       <c r="H7" t="n">
-        <v>101.6394</v>
+        <v>102.2041</v>
       </c>
       <c r="I7" t="n">
-        <v>100.2965</v>
+        <v>100.6675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.9777</v>
+        <v>102.055</v>
       </c>
       <c r="C8" t="n">
-        <v>91.1442</v>
+        <v>91.4845</v>
       </c>
       <c r="D8" t="n">
-        <v>100.2515</v>
+        <v>101.497</v>
       </c>
       <c r="E8" t="n">
-        <v>92.98990000000001</v>
+        <v>94.41849999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>99.6957</v>
+        <v>99.0283</v>
       </c>
       <c r="G8" t="n">
-        <v>97.81480000000001</v>
+        <v>102.0604</v>
       </c>
       <c r="H8" t="n">
-        <v>101.6881</v>
+        <v>102.4158</v>
       </c>
       <c r="I8" t="n">
-        <v>99.77379999999999</v>
+        <v>100.7894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.6342</v>
+        <v>102.472</v>
       </c>
       <c r="C9" t="n">
-        <v>91.82510000000001</v>
+        <v>90.9597</v>
       </c>
       <c r="D9" t="n">
-        <v>101.5473</v>
+        <v>101.6663</v>
       </c>
       <c r="E9" t="n">
-        <v>94.4374</v>
+        <v>94.1172</v>
       </c>
       <c r="F9" t="n">
-        <v>99.1955</v>
+        <v>98.925</v>
       </c>
       <c r="G9" t="n">
-        <v>97.8396</v>
+        <v>101.4318</v>
       </c>
       <c r="H9" t="n">
-        <v>102.0156</v>
+        <v>102.3884</v>
       </c>
       <c r="I9" t="n">
-        <v>100.0819</v>
+        <v>100.5605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.2263</v>
+        <v>102.6167</v>
       </c>
       <c r="C10" t="n">
-        <v>91.8678</v>
+        <v>87.9374</v>
       </c>
       <c r="D10" t="n">
-        <v>101.4436</v>
+        <v>101.2819</v>
       </c>
       <c r="E10" t="n">
-        <v>94.48820000000001</v>
+        <v>93.2038</v>
       </c>
       <c r="F10" t="n">
-        <v>99.1879</v>
+        <v>98.63890000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>102.9036</v>
+        <v>101.2055</v>
       </c>
       <c r="H10" t="n">
-        <v>102.2041</v>
+        <v>102.3684</v>
       </c>
       <c r="I10" t="n">
-        <v>100.6675</v>
+        <v>100.143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.055</v>
+        <v>102.1982</v>
       </c>
       <c r="C11" t="n">
-        <v>91.4845</v>
+        <v>87.7103</v>
       </c>
       <c r="D11" t="n">
-        <v>101.497</v>
+        <v>100.6063</v>
       </c>
       <c r="E11" t="n">
-        <v>94.41849999999999</v>
+        <v>93.28919999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>99.0283</v>
+        <v>98.78440000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>102.0604</v>
+        <v>100.614</v>
       </c>
       <c r="H11" t="n">
-        <v>102.4158</v>
+        <v>101.8542</v>
       </c>
       <c r="I11" t="n">
-        <v>100.7894</v>
+        <v>99.0754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>102.472</v>
+        <v>101.5785</v>
       </c>
       <c r="C12" t="n">
-        <v>90.9597</v>
+        <v>87.94</v>
       </c>
       <c r="D12" t="n">
-        <v>101.6663</v>
+        <v>100.2089</v>
       </c>
       <c r="E12" t="n">
-        <v>94.1172</v>
+        <v>93.499</v>
       </c>
       <c r="F12" t="n">
-        <v>98.925</v>
+        <v>98.4969</v>
       </c>
       <c r="G12" t="n">
-        <v>101.4318</v>
+        <v>100.2702</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3884</v>
+        <v>101.4518</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5605</v>
+        <v>98.9723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.6167</v>
+        <v>101.6522</v>
       </c>
       <c r="C13" t="n">
-        <v>87.9374</v>
+        <v>90.8176</v>
       </c>
       <c r="D13" t="n">
-        <v>101.2819</v>
+        <v>99.3048</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2038</v>
+        <v>92.84350000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>98.63890000000001</v>
+        <v>98.5012</v>
       </c>
       <c r="G13" t="n">
-        <v>101.2055</v>
+        <v>100.603</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3684</v>
+        <v>101.2036</v>
       </c>
       <c r="I13" t="n">
-        <v>100.143</v>
+        <v>98.1066</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.40000000000001</v>
+        <v>100.7538</v>
       </c>
       <c r="C14" t="n">
-        <v>112</v>
+        <v>94.42610000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>99.7</v>
+        <v>99.67359999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>96.09999999999999</v>
+        <v>93.358</v>
       </c>
       <c r="F14" t="n">
-        <v>98.3</v>
+        <v>98.57089999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>103.6</v>
+        <v>100.9431</v>
       </c>
       <c r="H14" t="n">
-        <v>99.7</v>
+        <v>101.2718</v>
       </c>
       <c r="I14" t="n">
-        <v>92.40000000000001</v>
+        <v>97.6692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.4676</v>
+        <v>100.4829</v>
       </c>
       <c r="C15" t="n">
-        <v>111.53</v>
+        <v>98.8682</v>
       </c>
       <c r="D15" t="n">
-        <v>99.4589</v>
+        <v>100.3355</v>
       </c>
       <c r="E15" t="n">
-        <v>96.2479</v>
+        <v>93.5411</v>
       </c>
       <c r="F15" t="n">
-        <v>98.5421</v>
+        <v>98.9158</v>
       </c>
       <c r="G15" t="n">
-        <v>103.5598</v>
+        <v>101.6234</v>
       </c>
       <c r="H15" t="n">
-        <v>99.5365</v>
+        <v>101.2929</v>
       </c>
       <c r="I15" t="n">
-        <v>91.37779999999999</v>
+        <v>96.8356</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.3537</v>
+        <v>101.3532</v>
       </c>
       <c r="C16" t="n">
-        <v>111.6239</v>
+        <v>101.6321</v>
       </c>
       <c r="D16" t="n">
-        <v>100.128</v>
+        <v>100.1651</v>
       </c>
       <c r="E16" t="n">
-        <v>97.3146</v>
+        <v>93.97839999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4654</v>
+        <v>99.422</v>
       </c>
       <c r="G16" t="n">
-        <v>103.8624</v>
+        <v>101.4281</v>
       </c>
       <c r="H16" t="n">
-        <v>99.7486</v>
+        <v>101.4182</v>
       </c>
       <c r="I16" t="n">
-        <v>91.7174</v>
+        <v>97.0295</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.7538</v>
+        <v>101.8533</v>
       </c>
       <c r="C17" t="n">
-        <v>94.42610000000001</v>
+        <v>105.1437</v>
       </c>
       <c r="D17" t="n">
-        <v>99.67359999999999</v>
+        <v>100.6043</v>
       </c>
       <c r="E17" t="n">
-        <v>93.358</v>
+        <v>93.73909999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>98.57089999999999</v>
+        <v>99.0673</v>
       </c>
       <c r="G17" t="n">
-        <v>100.9431</v>
+        <v>101.5911</v>
       </c>
       <c r="H17" t="n">
-        <v>101.2718</v>
+        <v>101.5729</v>
       </c>
       <c r="I17" t="n">
-        <v>97.6692</v>
+        <v>96.443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.4829</v>
+        <v>101.2316</v>
       </c>
       <c r="C18" t="n">
-        <v>98.8682</v>
+        <v>106.6399</v>
       </c>
       <c r="D18" t="n">
-        <v>100.3355</v>
+        <v>99.9269</v>
       </c>
       <c r="E18" t="n">
-        <v>93.5411</v>
+        <v>94.49809999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>98.9158</v>
+        <v>98.98260000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>101.6234</v>
+        <v>101.9954</v>
       </c>
       <c r="H18" t="n">
-        <v>101.2929</v>
+        <v>101.6525</v>
       </c>
       <c r="I18" t="n">
-        <v>96.8356</v>
+        <v>96.0894</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.3532</v>
+        <v>100.3068</v>
       </c>
       <c r="C19" t="n">
-        <v>101.6321</v>
+        <v>107.7064</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1651</v>
+        <v>99.7141</v>
       </c>
       <c r="E19" t="n">
-        <v>93.97839999999999</v>
+        <v>94.7253</v>
       </c>
       <c r="F19" t="n">
-        <v>99.422</v>
+        <v>98.6776</v>
       </c>
       <c r="G19" t="n">
-        <v>101.4281</v>
+        <v>102.8954</v>
       </c>
       <c r="H19" t="n">
-        <v>101.4182</v>
+        <v>101.6259</v>
       </c>
       <c r="I19" t="n">
-        <v>97.0295</v>
+        <v>94.53319999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.8533</v>
+        <v>99.44289999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>105.1437</v>
+        <v>107.8816</v>
       </c>
       <c r="D20" t="n">
-        <v>100.6043</v>
+        <v>100.8792</v>
       </c>
       <c r="E20" t="n">
-        <v>93.73909999999999</v>
+        <v>95.2794</v>
       </c>
       <c r="F20" t="n">
-        <v>99.0673</v>
+        <v>98.4552</v>
       </c>
       <c r="G20" t="n">
-        <v>101.5911</v>
+        <v>103.2484</v>
       </c>
       <c r="H20" t="n">
-        <v>101.5729</v>
+        <v>101.3886</v>
       </c>
       <c r="I20" t="n">
-        <v>96.443</v>
+        <v>94.4229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.2316</v>
+        <v>98.7099</v>
       </c>
       <c r="C21" t="n">
-        <v>106.6399</v>
+        <v>107.9139</v>
       </c>
       <c r="D21" t="n">
-        <v>99.9269</v>
+        <v>100.4433</v>
       </c>
       <c r="E21" t="n">
-        <v>94.49809999999999</v>
+        <v>96.0843</v>
       </c>
       <c r="F21" t="n">
-        <v>98.98260000000001</v>
+        <v>98.2444</v>
       </c>
       <c r="G21" t="n">
-        <v>101.9954</v>
+        <v>103.0502</v>
       </c>
       <c r="H21" t="n">
-        <v>101.6525</v>
+        <v>101.1373</v>
       </c>
       <c r="I21" t="n">
-        <v>96.0894</v>
+        <v>93.8064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.3068</v>
+        <v>98.0193</v>
       </c>
       <c r="C22" t="n">
-        <v>107.7064</v>
+        <v>111.4509</v>
       </c>
       <c r="D22" t="n">
-        <v>99.7141</v>
+        <v>99.8994</v>
       </c>
       <c r="E22" t="n">
-        <v>94.7253</v>
+        <v>96.3325</v>
       </c>
       <c r="F22" t="n">
-        <v>98.6776</v>
+        <v>98.52200000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>102.8954</v>
+        <v>103.7135</v>
       </c>
       <c r="H22" t="n">
-        <v>101.6259</v>
+        <v>100.3675</v>
       </c>
       <c r="I22" t="n">
-        <v>94.53319999999999</v>
+        <v>93.0254</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.44289999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>107.8816</v>
+        <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>100.8792</v>
+        <v>99.7</v>
       </c>
       <c r="E23" t="n">
-        <v>95.2794</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>98.4552</v>
+        <v>98.3</v>
       </c>
       <c r="G23" t="n">
-        <v>103.2484</v>
+        <v>103.6</v>
       </c>
       <c r="H23" t="n">
-        <v>101.3886</v>
+        <v>99.7</v>
       </c>
       <c r="I23" t="n">
-        <v>94.4229</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.7099</v>
+        <v>97.4676</v>
       </c>
       <c r="C24" t="n">
-        <v>107.9139</v>
+        <v>111.53</v>
       </c>
       <c r="D24" t="n">
-        <v>100.4433</v>
+        <v>99.4589</v>
       </c>
       <c r="E24" t="n">
-        <v>96.0843</v>
+        <v>96.2479</v>
       </c>
       <c r="F24" t="n">
-        <v>98.2444</v>
+        <v>98.5421</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0502</v>
+        <v>103.5598</v>
       </c>
       <c r="H24" t="n">
-        <v>101.1373</v>
+        <v>99.5365</v>
       </c>
       <c r="I24" t="n">
-        <v>93.8064</v>
+        <v>91.37779999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.0193</v>
+        <v>97.3537</v>
       </c>
       <c r="C25" t="n">
-        <v>111.4509</v>
+        <v>111.6239</v>
       </c>
       <c r="D25" t="n">
-        <v>99.8994</v>
+        <v>100.128</v>
       </c>
       <c r="E25" t="n">
-        <v>96.3325</v>
+        <v>97.3146</v>
       </c>
       <c r="F25" t="n">
-        <v>98.52200000000001</v>
+        <v>98.4654</v>
       </c>
       <c r="G25" t="n">
-        <v>103.7135</v>
+        <v>103.8624</v>
       </c>
       <c r="H25" t="n">
-        <v>100.3675</v>
+        <v>99.7486</v>
       </c>
       <c r="I25" t="n">
-        <v>93.0254</v>
+        <v>91.7174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95.8</v>
+        <v>98.084</v>
       </c>
       <c r="C26" t="n">
-        <v>109.8</v>
+        <v>113.0453</v>
       </c>
       <c r="D26" t="n">
-        <v>101.3</v>
+        <v>101.4796</v>
       </c>
       <c r="E26" t="n">
-        <v>103.3</v>
+        <v>97.9061</v>
       </c>
       <c r="F26" t="n">
-        <v>102.1</v>
+        <v>99.6542</v>
       </c>
       <c r="G26" t="n">
-        <v>101.5</v>
+        <v>103.4676</v>
       </c>
       <c r="H26" t="n">
-        <v>100.1</v>
+        <v>99.60420000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>98.8</v>
+        <v>93.1666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95.90000000000001</v>
+        <v>97.87990000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>110.8</v>
+        <v>110.2384</v>
       </c>
       <c r="D27" t="n">
-        <v>101.8</v>
+        <v>102.6778</v>
       </c>
       <c r="E27" t="n">
-        <v>104.5</v>
+        <v>98.6086</v>
       </c>
       <c r="F27" t="n">
-        <v>102.4</v>
+        <v>99.58110000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>101.8</v>
+        <v>103.2935</v>
       </c>
       <c r="H27" t="n">
-        <v>101</v>
+        <v>99.4712</v>
       </c>
       <c r="I27" t="n">
-        <v>100.3</v>
+        <v>93.2034</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.59999999999999</v>
+        <v>96.9301</v>
       </c>
       <c r="C28" t="n">
-        <v>115.6</v>
+        <v>107.7616</v>
       </c>
       <c r="D28" t="n">
-        <v>102.1</v>
+        <v>105.8925</v>
       </c>
       <c r="E28" t="n">
-        <v>106</v>
+        <v>98.68170000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>102.8</v>
+        <v>99.8493</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1</v>
+        <v>102.9382</v>
       </c>
       <c r="H28" t="n">
-        <v>101.2</v>
+        <v>99.31189999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>102.1</v>
+        <v>92.8349</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.084</v>
+        <v>95.8005</v>
       </c>
       <c r="C29" t="n">
-        <v>113.0453</v>
+        <v>105.1482</v>
       </c>
       <c r="D29" t="n">
-        <v>101.4796</v>
+        <v>105.7866</v>
       </c>
       <c r="E29" t="n">
-        <v>97.9061</v>
+        <v>100.2837</v>
       </c>
       <c r="F29" t="n">
-        <v>99.6542</v>
+        <v>99.84910000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>103.4676</v>
+        <v>102.8276</v>
       </c>
       <c r="H29" t="n">
-        <v>99.60420000000001</v>
+        <v>99.2662</v>
       </c>
       <c r="I29" t="n">
-        <v>93.1666</v>
+        <v>92.1772</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.87990000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C30" t="n">
-        <v>110.2384</v>
+        <v>103.7</v>
       </c>
       <c r="D30" t="n">
-        <v>102.6778</v>
+        <v>105.7</v>
       </c>
       <c r="E30" t="n">
-        <v>98.6086</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>99.58110000000001</v>
+        <v>100.5</v>
       </c>
       <c r="G30" t="n">
-        <v>103.2935</v>
+        <v>103.2</v>
       </c>
       <c r="H30" t="n">
-        <v>99.4712</v>
+        <v>99.3</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2034</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.9301</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>107.7616</v>
+        <v>104.2</v>
       </c>
       <c r="D31" t="n">
-        <v>105.8925</v>
+        <v>105.6</v>
       </c>
       <c r="E31" t="n">
-        <v>98.68170000000001</v>
+        <v>100.1</v>
       </c>
       <c r="F31" t="n">
-        <v>99.8493</v>
+        <v>101</v>
       </c>
       <c r="G31" t="n">
-        <v>102.9382</v>
+        <v>102.3</v>
       </c>
       <c r="H31" t="n">
-        <v>99.31189999999999</v>
+        <v>99.2</v>
       </c>
       <c r="I31" t="n">
-        <v>92.8349</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.8005</v>
+        <v>95.7</v>
       </c>
       <c r="C32" t="n">
-        <v>105.1482</v>
+        <v>107</v>
       </c>
       <c r="D32" t="n">
-        <v>105.7866</v>
+        <v>103</v>
       </c>
       <c r="E32" t="n">
-        <v>100.2837</v>
+        <v>100.5</v>
       </c>
       <c r="F32" t="n">
-        <v>99.84910000000001</v>
+        <v>101.9</v>
       </c>
       <c r="G32" t="n">
-        <v>102.8276</v>
+        <v>102.4</v>
       </c>
       <c r="H32" t="n">
-        <v>99.2662</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>92.1772</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>103.7</v>
+        <v>107.5</v>
       </c>
       <c r="D33" t="n">
-        <v>105.7</v>
+        <v>101.8</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>101.1</v>
       </c>
       <c r="F33" t="n">
-        <v>100.5</v>
+        <v>101.9</v>
       </c>
       <c r="G33" t="n">
-        <v>103.2</v>
+        <v>102.4</v>
       </c>
       <c r="H33" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="I33" t="n">
-        <v>92.59999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>104.2</v>
+        <v>108.3</v>
       </c>
       <c r="D34" t="n">
-        <v>105.6</v>
+        <v>101.9</v>
       </c>
       <c r="E34" t="n">
-        <v>100.1</v>
+        <v>102.4</v>
       </c>
       <c r="F34" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="H34" t="n">
         <v>99.2</v>
       </c>
       <c r="I34" t="n">
-        <v>95.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="C35" t="n">
-        <v>107</v>
+        <v>109.8</v>
       </c>
       <c r="D35" t="n">
-        <v>103</v>
+        <v>101.3</v>
       </c>
       <c r="E35" t="n">
-        <v>100.5</v>
+        <v>103.3</v>
       </c>
       <c r="F35" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="G35" t="n">
-        <v>102.4</v>
+        <v>101.5</v>
       </c>
       <c r="H35" t="n">
-        <v>98.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>107.5</v>
+        <v>110.8</v>
       </c>
       <c r="D36" t="n">
         <v>101.8</v>
       </c>
       <c r="E36" t="n">
-        <v>101.1</v>
+        <v>104.5</v>
       </c>
       <c r="F36" t="n">
-        <v>101.9</v>
+        <v>102.4</v>
       </c>
       <c r="G36" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
       <c r="H36" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I36" t="n">
-        <v>97.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>108.3</v>
+        <v>115.6</v>
       </c>
       <c r="D37" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="E37" t="n">
-        <v>102.4</v>
+        <v>106</v>
       </c>
       <c r="F37" t="n">
-        <v>102</v>
+        <v>102.8</v>
       </c>
       <c r="G37" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="H37" t="n">
-        <v>99.2</v>
+        <v>101.2</v>
       </c>
       <c r="I37" t="n">
-        <v>98.09999999999999</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.5</v>
+        <v>96.7</v>
       </c>
       <c r="C38" t="n">
-        <v>105.9</v>
+        <v>114</v>
       </c>
       <c r="D38" t="n">
-        <v>98.2</v>
+        <v>101.6</v>
       </c>
       <c r="E38" t="n">
-        <v>99.59999999999999</v>
+        <v>106.7</v>
       </c>
       <c r="F38" t="n">
-        <v>101.4</v>
+        <v>103.1</v>
       </c>
       <c r="G38" t="n">
-        <v>100.1</v>
+        <v>102.3</v>
       </c>
       <c r="H38" t="n">
         <v>101.7</v>
       </c>
       <c r="I38" t="n">
-        <v>100.4</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.8</v>
+        <v>96.7</v>
       </c>
       <c r="C39" t="n">
-        <v>103.6</v>
+        <v>115</v>
       </c>
       <c r="D39" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>98.09999999999999</v>
+        <v>105.9</v>
       </c>
       <c r="F39" t="n">
-        <v>101.1</v>
+        <v>103.2</v>
       </c>
       <c r="G39" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="H39" t="n">
-        <v>101.1</v>
+        <v>101.9</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101</v>
+        <v>97.2</v>
       </c>
       <c r="C40" t="n">
-        <v>98.8</v>
+        <v>114.9</v>
       </c>
       <c r="D40" t="n">
-        <v>99.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>95.7</v>
+        <v>104.4</v>
       </c>
       <c r="F40" t="n">
-        <v>101</v>
+        <v>103.2</v>
       </c>
       <c r="G40" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="H40" t="n">
-        <v>100.8</v>
+        <v>101.9</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59999999999999</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="C41" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="D41" t="n">
-        <v>101.6</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>106.7</v>
+        <v>101.2</v>
       </c>
       <c r="F41" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="G41" t="n">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="H41" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="I41" t="n">
-        <v>102.6</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>115</v>
+        <v>113.4</v>
       </c>
       <c r="D42" t="n">
-        <v>99.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="E42" t="n">
-        <v>105.9</v>
+        <v>100.1</v>
       </c>
       <c r="F42" t="n">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="G42" t="n">
-        <v>102</v>
+        <v>100.9</v>
       </c>
       <c r="H42" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="I42" t="n">
-        <v>102.4</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.2</v>
+        <v>98.3</v>
       </c>
       <c r="C43" t="n">
-        <v>114.9</v>
+        <v>111.8</v>
       </c>
       <c r="D43" t="n">
-        <v>97.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E43" t="n">
-        <v>104.4</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="G43" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="I43" t="n">
-        <v>102.9</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="C44" t="n">
-        <v>114.1</v>
+        <v>109.1</v>
       </c>
       <c r="D44" t="n">
-        <v>96.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="E44" t="n">
-        <v>101.2</v>
+        <v>100.1</v>
       </c>
       <c r="F44" t="n">
-        <v>103.4</v>
+        <v>102.3</v>
       </c>
       <c r="G44" t="n">
-        <v>101.9</v>
+        <v>100.5</v>
       </c>
       <c r="H44" t="n">
         <v>102</v>
       </c>
       <c r="I44" t="n">
-        <v>103.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>113.4</v>
+        <v>108.5</v>
       </c>
       <c r="D45" t="n">
-        <v>94.7</v>
+        <v>97.5</v>
       </c>
       <c r="E45" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="F45" t="n">
-        <v>103.6</v>
+        <v>102.2</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="H45" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="I45" t="n">
-        <v>103.4</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>111.8</v>
+        <v>107.8</v>
       </c>
       <c r="D46" t="n">
-        <v>93.7</v>
+        <v>97.8</v>
       </c>
       <c r="E46" t="n">
-        <v>99.59999999999999</v>
+        <v>100.8</v>
       </c>
       <c r="F46" t="n">
-        <v>103</v>
+        <v>101.4</v>
       </c>
       <c r="G46" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="H46" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="I46" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.5</v>
+        <v>100.5</v>
       </c>
       <c r="C47" t="n">
-        <v>109.1</v>
+        <v>105.9</v>
       </c>
       <c r="D47" t="n">
-        <v>95.2</v>
+        <v>98.2</v>
       </c>
       <c r="E47" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F47" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G47" t="n">
         <v>100.1</v>
       </c>
-      <c r="F47" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>100.5</v>
-      </c>
       <c r="H47" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="I47" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.40000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="C48" t="n">
-        <v>108.5</v>
+        <v>103.6</v>
       </c>
       <c r="D48" t="n">
-        <v>97.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>100.4</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>102.2</v>
+        <v>101.1</v>
       </c>
       <c r="G48" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="H48" t="n">
-        <v>101.9</v>
+        <v>101.1</v>
       </c>
       <c r="I48" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>107.8</v>
+        <v>98.8</v>
       </c>
       <c r="D49" t="n">
-        <v>97.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E49" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>101</v>
+      </c>
+      <c r="G49" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="H49" t="n">
         <v>100.8</v>
       </c>
-      <c r="F49" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G49" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H49" t="n">
-        <v>102.1</v>
-      </c>
       <c r="I49" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/农副食品加工业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/农副食品加工业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1489 +478,1489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.5551</v>
+        <v>102.1982</v>
       </c>
       <c r="C2" t="n">
-        <v>91.5826</v>
+        <v>87.7103</v>
       </c>
       <c r="D2" t="n">
-        <v>99.3348</v>
+        <v>100.6063</v>
       </c>
       <c r="E2" t="n">
-        <v>91.73399999999999</v>
+        <v>93.28919999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>100.2955</v>
+        <v>98.78440000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>97.3712</v>
+        <v>100.614</v>
       </c>
       <c r="H2" t="n">
-        <v>102.0858</v>
+        <v>101.8542</v>
       </c>
       <c r="I2" t="n">
-        <v>102.3361</v>
+        <v>99.0754</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.626</v>
+        <v>101.5785</v>
       </c>
       <c r="C3" t="n">
-        <v>90.4927</v>
+        <v>87.94</v>
       </c>
       <c r="D3" t="n">
-        <v>98.4614</v>
+        <v>100.2089</v>
       </c>
       <c r="E3" t="n">
-        <v>91.0985</v>
+        <v>93.499</v>
       </c>
       <c r="F3" t="n">
-        <v>100.2011</v>
+        <v>98.4969</v>
       </c>
       <c r="G3" t="n">
-        <v>96.6289</v>
+        <v>100.2702</v>
       </c>
       <c r="H3" t="n">
-        <v>101.6822</v>
+        <v>101.4518</v>
       </c>
       <c r="I3" t="n">
-        <v>102.0259</v>
+        <v>98.9723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.9872</v>
+        <v>101.6522</v>
       </c>
       <c r="C4" t="n">
-        <v>91.1161</v>
+        <v>90.8176</v>
       </c>
       <c r="D4" t="n">
-        <v>98.8599</v>
+        <v>99.3048</v>
       </c>
       <c r="E4" t="n">
-        <v>91.68940000000001</v>
+        <v>92.84350000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>99.4842</v>
+        <v>98.5012</v>
       </c>
       <c r="G4" t="n">
-        <v>97.55759999999999</v>
+        <v>100.603</v>
       </c>
       <c r="H4" t="n">
-        <v>101.6394</v>
+        <v>101.2036</v>
       </c>
       <c r="I4" t="n">
-        <v>100.2965</v>
+        <v>98.1066</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.9777</v>
+        <v>100.5551</v>
       </c>
       <c r="C5" t="n">
-        <v>91.1442</v>
+        <v>91.5826</v>
       </c>
       <c r="D5" t="n">
-        <v>100.2515</v>
+        <v>99.3348</v>
       </c>
       <c r="E5" t="n">
-        <v>92.98990000000001</v>
+        <v>91.73399999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>99.6957</v>
+        <v>100.2955</v>
       </c>
       <c r="G5" t="n">
-        <v>97.81480000000001</v>
+        <v>97.3712</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6881</v>
+        <v>102.0858</v>
       </c>
       <c r="I5" t="n">
-        <v>99.77379999999999</v>
+        <v>102.3361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.6342</v>
+        <v>100.626</v>
       </c>
       <c r="C6" t="n">
-        <v>91.82510000000001</v>
+        <v>90.4927</v>
       </c>
       <c r="D6" t="n">
-        <v>101.5473</v>
+        <v>98.4614</v>
       </c>
       <c r="E6" t="n">
-        <v>94.4374</v>
+        <v>91.0985</v>
       </c>
       <c r="F6" t="n">
-        <v>99.1955</v>
+        <v>100.2011</v>
       </c>
       <c r="G6" t="n">
-        <v>97.8396</v>
+        <v>96.6289</v>
       </c>
       <c r="H6" t="n">
-        <v>102.0156</v>
+        <v>101.6822</v>
       </c>
       <c r="I6" t="n">
-        <v>100.0819</v>
+        <v>102.0259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.2263</v>
+        <v>99.9872</v>
       </c>
       <c r="C7" t="n">
-        <v>91.8678</v>
+        <v>91.1161</v>
       </c>
       <c r="D7" t="n">
-        <v>101.4436</v>
+        <v>98.8599</v>
       </c>
       <c r="E7" t="n">
-        <v>94.48820000000001</v>
+        <v>91.68940000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>99.1879</v>
+        <v>99.4842</v>
       </c>
       <c r="G7" t="n">
-        <v>102.9036</v>
+        <v>97.55759999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>102.2041</v>
+        <v>101.6394</v>
       </c>
       <c r="I7" t="n">
-        <v>100.6675</v>
+        <v>100.2965</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.055</v>
+        <v>99.9777</v>
       </c>
       <c r="C8" t="n">
-        <v>91.4845</v>
+        <v>91.1442</v>
       </c>
       <c r="D8" t="n">
-        <v>101.497</v>
+        <v>100.2515</v>
       </c>
       <c r="E8" t="n">
-        <v>94.41849999999999</v>
+        <v>92.98990000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>99.0283</v>
+        <v>99.6957</v>
       </c>
       <c r="G8" t="n">
-        <v>102.0604</v>
+        <v>97.81480000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>102.4158</v>
+        <v>101.6881</v>
       </c>
       <c r="I8" t="n">
-        <v>100.7894</v>
+        <v>99.77379999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.472</v>
+        <v>100.6342</v>
       </c>
       <c r="C9" t="n">
-        <v>90.9597</v>
+        <v>91.82510000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>101.6663</v>
+        <v>101.5473</v>
       </c>
       <c r="E9" t="n">
-        <v>94.1172</v>
+        <v>94.4374</v>
       </c>
       <c r="F9" t="n">
-        <v>98.925</v>
+        <v>99.1955</v>
       </c>
       <c r="G9" t="n">
-        <v>101.4318</v>
+        <v>97.8396</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3884</v>
+        <v>102.0156</v>
       </c>
       <c r="I9" t="n">
-        <v>100.5605</v>
+        <v>100.0819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.6167</v>
+        <v>101.2263</v>
       </c>
       <c r="C10" t="n">
-        <v>87.9374</v>
+        <v>91.8678</v>
       </c>
       <c r="D10" t="n">
-        <v>101.2819</v>
+        <v>101.4436</v>
       </c>
       <c r="E10" t="n">
-        <v>93.2038</v>
+        <v>94.48820000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>98.63890000000001</v>
+        <v>99.1879</v>
       </c>
       <c r="G10" t="n">
-        <v>101.2055</v>
+        <v>102.9036</v>
       </c>
       <c r="H10" t="n">
-        <v>102.3684</v>
+        <v>102.2041</v>
       </c>
       <c r="I10" t="n">
-        <v>100.143</v>
+        <v>100.6675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.1982</v>
+        <v>102.055</v>
       </c>
       <c r="C11" t="n">
-        <v>87.7103</v>
+        <v>91.4845</v>
       </c>
       <c r="D11" t="n">
-        <v>100.6063</v>
+        <v>101.497</v>
       </c>
       <c r="E11" t="n">
-        <v>93.28919999999999</v>
+        <v>94.41849999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>98.78440000000001</v>
+        <v>99.0283</v>
       </c>
       <c r="G11" t="n">
-        <v>100.614</v>
+        <v>102.0604</v>
       </c>
       <c r="H11" t="n">
-        <v>101.8542</v>
+        <v>102.4158</v>
       </c>
       <c r="I11" t="n">
-        <v>99.0754</v>
+        <v>100.7894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.5785</v>
+        <v>102.472</v>
       </c>
       <c r="C12" t="n">
-        <v>87.94</v>
+        <v>90.9597</v>
       </c>
       <c r="D12" t="n">
-        <v>100.2089</v>
+        <v>101.6663</v>
       </c>
       <c r="E12" t="n">
-        <v>93.499</v>
+        <v>94.1172</v>
       </c>
       <c r="F12" t="n">
-        <v>98.4969</v>
+        <v>98.925</v>
       </c>
       <c r="G12" t="n">
-        <v>100.2702</v>
+        <v>101.4318</v>
       </c>
       <c r="H12" t="n">
-        <v>101.4518</v>
+        <v>102.3884</v>
       </c>
       <c r="I12" t="n">
-        <v>98.9723</v>
+        <v>100.5605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.6522</v>
+        <v>102.6167</v>
       </c>
       <c r="C13" t="n">
-        <v>90.8176</v>
+        <v>87.9374</v>
       </c>
       <c r="D13" t="n">
-        <v>99.3048</v>
+        <v>101.2819</v>
       </c>
       <c r="E13" t="n">
-        <v>92.84350000000001</v>
+        <v>93.2038</v>
       </c>
       <c r="F13" t="n">
-        <v>98.5012</v>
+        <v>98.63890000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>100.603</v>
+        <v>101.2055</v>
       </c>
       <c r="H13" t="n">
-        <v>101.2036</v>
+        <v>102.3684</v>
       </c>
       <c r="I13" t="n">
-        <v>98.1066</v>
+        <v>100.143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.7538</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>94.42610000000001</v>
+        <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>99.67359999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E14" t="n">
-        <v>93.358</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>98.57089999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G14" t="n">
-        <v>100.9431</v>
+        <v>103.6</v>
       </c>
       <c r="H14" t="n">
-        <v>101.2718</v>
+        <v>99.7</v>
       </c>
       <c r="I14" t="n">
-        <v>97.6692</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4829</v>
+        <v>97.4676</v>
       </c>
       <c r="C15" t="n">
-        <v>98.8682</v>
+        <v>111.53</v>
       </c>
       <c r="D15" t="n">
-        <v>100.3355</v>
+        <v>99.4589</v>
       </c>
       <c r="E15" t="n">
-        <v>93.5411</v>
+        <v>96.2479</v>
       </c>
       <c r="F15" t="n">
-        <v>98.9158</v>
+        <v>98.5421</v>
       </c>
       <c r="G15" t="n">
-        <v>101.6234</v>
+        <v>103.5598</v>
       </c>
       <c r="H15" t="n">
-        <v>101.2929</v>
+        <v>99.5365</v>
       </c>
       <c r="I15" t="n">
-        <v>96.8356</v>
+        <v>91.37779999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.3532</v>
+        <v>97.3537</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6321</v>
+        <v>111.6239</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1651</v>
+        <v>100.128</v>
       </c>
       <c r="E16" t="n">
-        <v>93.97839999999999</v>
+        <v>97.3146</v>
       </c>
       <c r="F16" t="n">
-        <v>99.422</v>
+        <v>98.4654</v>
       </c>
       <c r="G16" t="n">
-        <v>101.4281</v>
+        <v>103.8624</v>
       </c>
       <c r="H16" t="n">
-        <v>101.4182</v>
+        <v>99.7486</v>
       </c>
       <c r="I16" t="n">
-        <v>97.0295</v>
+        <v>91.7174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.8533</v>
+        <v>100.7538</v>
       </c>
       <c r="C17" t="n">
-        <v>105.1437</v>
+        <v>94.42610000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>100.6043</v>
+        <v>99.67359999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>93.73909999999999</v>
+        <v>93.358</v>
       </c>
       <c r="F17" t="n">
-        <v>99.0673</v>
+        <v>98.57089999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>101.5911</v>
+        <v>100.9431</v>
       </c>
       <c r="H17" t="n">
-        <v>101.5729</v>
+        <v>101.2718</v>
       </c>
       <c r="I17" t="n">
-        <v>96.443</v>
+        <v>97.6692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.2316</v>
+        <v>100.4829</v>
       </c>
       <c r="C18" t="n">
-        <v>106.6399</v>
+        <v>98.8682</v>
       </c>
       <c r="D18" t="n">
-        <v>99.9269</v>
+        <v>100.3355</v>
       </c>
       <c r="E18" t="n">
-        <v>94.49809999999999</v>
+        <v>93.5411</v>
       </c>
       <c r="F18" t="n">
-        <v>98.98260000000001</v>
+        <v>98.9158</v>
       </c>
       <c r="G18" t="n">
-        <v>101.9954</v>
+        <v>101.6234</v>
       </c>
       <c r="H18" t="n">
-        <v>101.6525</v>
+        <v>101.2929</v>
       </c>
       <c r="I18" t="n">
-        <v>96.0894</v>
+        <v>96.8356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.3068</v>
+        <v>101.3532</v>
       </c>
       <c r="C19" t="n">
-        <v>107.7064</v>
+        <v>101.6321</v>
       </c>
       <c r="D19" t="n">
-        <v>99.7141</v>
+        <v>100.1651</v>
       </c>
       <c r="E19" t="n">
-        <v>94.7253</v>
+        <v>93.97839999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>98.6776</v>
+        <v>99.422</v>
       </c>
       <c r="G19" t="n">
-        <v>102.8954</v>
+        <v>101.4281</v>
       </c>
       <c r="H19" t="n">
-        <v>101.6259</v>
+        <v>101.4182</v>
       </c>
       <c r="I19" t="n">
-        <v>94.53319999999999</v>
+        <v>97.0295</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.44289999999999</v>
+        <v>101.8533</v>
       </c>
       <c r="C20" t="n">
-        <v>107.8816</v>
+        <v>105.1437</v>
       </c>
       <c r="D20" t="n">
-        <v>100.8792</v>
+        <v>100.6043</v>
       </c>
       <c r="E20" t="n">
-        <v>95.2794</v>
+        <v>93.73909999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>98.4552</v>
+        <v>99.0673</v>
       </c>
       <c r="G20" t="n">
-        <v>103.2484</v>
+        <v>101.5911</v>
       </c>
       <c r="H20" t="n">
-        <v>101.3886</v>
+        <v>101.5729</v>
       </c>
       <c r="I20" t="n">
-        <v>94.4229</v>
+        <v>96.443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.7099</v>
+        <v>101.2316</v>
       </c>
       <c r="C21" t="n">
-        <v>107.9139</v>
+        <v>106.6399</v>
       </c>
       <c r="D21" t="n">
-        <v>100.4433</v>
+        <v>99.9269</v>
       </c>
       <c r="E21" t="n">
-        <v>96.0843</v>
+        <v>94.49809999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>98.2444</v>
+        <v>98.98260000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>103.0502</v>
+        <v>101.9954</v>
       </c>
       <c r="H21" t="n">
-        <v>101.1373</v>
+        <v>101.6525</v>
       </c>
       <c r="I21" t="n">
-        <v>93.8064</v>
+        <v>96.0894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.0193</v>
+        <v>100.3068</v>
       </c>
       <c r="C22" t="n">
-        <v>111.4509</v>
+        <v>107.7064</v>
       </c>
       <c r="D22" t="n">
-        <v>99.8994</v>
+        <v>99.7141</v>
       </c>
       <c r="E22" t="n">
-        <v>96.3325</v>
+        <v>94.7253</v>
       </c>
       <c r="F22" t="n">
-        <v>98.52200000000001</v>
+        <v>98.6776</v>
       </c>
       <c r="G22" t="n">
-        <v>103.7135</v>
+        <v>102.8954</v>
       </c>
       <c r="H22" t="n">
-        <v>100.3675</v>
+        <v>101.6259</v>
       </c>
       <c r="I22" t="n">
-        <v>93.0254</v>
+        <v>94.53319999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.40000000000001</v>
+        <v>99.44289999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>112</v>
+        <v>107.8816</v>
       </c>
       <c r="D23" t="n">
-        <v>99.7</v>
+        <v>100.8792</v>
       </c>
       <c r="E23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.2794</v>
       </c>
       <c r="F23" t="n">
-        <v>98.3</v>
+        <v>98.4552</v>
       </c>
       <c r="G23" t="n">
-        <v>103.6</v>
+        <v>103.2484</v>
       </c>
       <c r="H23" t="n">
-        <v>99.7</v>
+        <v>101.3886</v>
       </c>
       <c r="I23" t="n">
-        <v>92.40000000000001</v>
+        <v>94.4229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.4676</v>
+        <v>98.7099</v>
       </c>
       <c r="C24" t="n">
-        <v>111.53</v>
+        <v>107.9139</v>
       </c>
       <c r="D24" t="n">
-        <v>99.4589</v>
+        <v>100.4433</v>
       </c>
       <c r="E24" t="n">
-        <v>96.2479</v>
+        <v>96.0843</v>
       </c>
       <c r="F24" t="n">
-        <v>98.5421</v>
+        <v>98.2444</v>
       </c>
       <c r="G24" t="n">
-        <v>103.5598</v>
+        <v>103.0502</v>
       </c>
       <c r="H24" t="n">
-        <v>99.5365</v>
+        <v>101.1373</v>
       </c>
       <c r="I24" t="n">
-        <v>91.37779999999999</v>
+        <v>93.8064</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.3537</v>
+        <v>98.0193</v>
       </c>
       <c r="C25" t="n">
-        <v>111.6239</v>
+        <v>111.4509</v>
       </c>
       <c r="D25" t="n">
-        <v>100.128</v>
+        <v>99.8994</v>
       </c>
       <c r="E25" t="n">
-        <v>97.3146</v>
+        <v>96.3325</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4654</v>
+        <v>98.52200000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>103.8624</v>
+        <v>103.7135</v>
       </c>
       <c r="H25" t="n">
-        <v>99.7486</v>
+        <v>100.3675</v>
       </c>
       <c r="I25" t="n">
-        <v>91.7174</v>
+        <v>93.0254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.084</v>
+        <v>95.8</v>
       </c>
       <c r="C26" t="n">
-        <v>113.0453</v>
+        <v>109.8</v>
       </c>
       <c r="D26" t="n">
-        <v>101.4796</v>
+        <v>101.3</v>
       </c>
       <c r="E26" t="n">
-        <v>97.9061</v>
+        <v>103.3</v>
       </c>
       <c r="F26" t="n">
-        <v>99.6542</v>
+        <v>102.1</v>
       </c>
       <c r="G26" t="n">
-        <v>103.4676</v>
+        <v>101.5</v>
       </c>
       <c r="H26" t="n">
-        <v>99.60420000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I26" t="n">
-        <v>93.1666</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.87990000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>110.2384</v>
+        <v>110.8</v>
       </c>
       <c r="D27" t="n">
-        <v>102.6778</v>
+        <v>101.8</v>
       </c>
       <c r="E27" t="n">
-        <v>98.6086</v>
+        <v>104.5</v>
       </c>
       <c r="F27" t="n">
-        <v>99.58110000000001</v>
+        <v>102.4</v>
       </c>
       <c r="G27" t="n">
-        <v>103.2935</v>
+        <v>101.8</v>
       </c>
       <c r="H27" t="n">
-        <v>99.4712</v>
+        <v>101</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2034</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.9301</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>107.7616</v>
+        <v>115.6</v>
       </c>
       <c r="D28" t="n">
-        <v>105.8925</v>
+        <v>102.1</v>
       </c>
       <c r="E28" t="n">
-        <v>98.68170000000001</v>
+        <v>106</v>
       </c>
       <c r="F28" t="n">
-        <v>99.8493</v>
+        <v>102.8</v>
       </c>
       <c r="G28" t="n">
-        <v>102.9382</v>
+        <v>102.1</v>
       </c>
       <c r="H28" t="n">
-        <v>99.31189999999999</v>
+        <v>101.2</v>
       </c>
       <c r="I28" t="n">
-        <v>92.8349</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.8005</v>
+        <v>98.084</v>
       </c>
       <c r="C29" t="n">
-        <v>105.1482</v>
+        <v>113.0453</v>
       </c>
       <c r="D29" t="n">
-        <v>105.7866</v>
+        <v>101.4796</v>
       </c>
       <c r="E29" t="n">
-        <v>100.2837</v>
+        <v>97.9061</v>
       </c>
       <c r="F29" t="n">
-        <v>99.84910000000001</v>
+        <v>99.6542</v>
       </c>
       <c r="G29" t="n">
-        <v>102.8276</v>
+        <v>103.4676</v>
       </c>
       <c r="H29" t="n">
-        <v>99.2662</v>
+        <v>99.60420000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>92.1772</v>
+        <v>93.1666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.7</v>
+        <v>97.87990000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>103.7</v>
+        <v>110.2384</v>
       </c>
       <c r="D30" t="n">
-        <v>105.7</v>
+        <v>102.6778</v>
       </c>
       <c r="E30" t="n">
-        <v>100</v>
+        <v>98.6086</v>
       </c>
       <c r="F30" t="n">
-        <v>100.5</v>
+        <v>99.58110000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>103.2</v>
+        <v>103.2935</v>
       </c>
       <c r="H30" t="n">
-        <v>99.3</v>
+        <v>99.4712</v>
       </c>
       <c r="I30" t="n">
-        <v>92.59999999999999</v>
+        <v>93.2034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.90000000000001</v>
+        <v>96.9301</v>
       </c>
       <c r="C31" t="n">
-        <v>104.2</v>
+        <v>107.7616</v>
       </c>
       <c r="D31" t="n">
-        <v>105.6</v>
+        <v>105.8925</v>
       </c>
       <c r="E31" t="n">
-        <v>100.1</v>
+        <v>98.68170000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>101</v>
+        <v>99.8493</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3</v>
+        <v>102.9382</v>
       </c>
       <c r="H31" t="n">
-        <v>99.2</v>
+        <v>99.31189999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>95.09999999999999</v>
+        <v>92.8349</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.7</v>
+        <v>95.8005</v>
       </c>
       <c r="C32" t="n">
-        <v>107</v>
+        <v>105.1482</v>
       </c>
       <c r="D32" t="n">
-        <v>103</v>
+        <v>105.7866</v>
       </c>
       <c r="E32" t="n">
-        <v>100.5</v>
+        <v>100.2837</v>
       </c>
       <c r="F32" t="n">
-        <v>101.9</v>
+        <v>99.84910000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4</v>
+        <v>102.8276</v>
       </c>
       <c r="H32" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2662</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2</v>
+        <v>92.1772</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.09999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="C33" t="n">
-        <v>107.5</v>
+        <v>103.7</v>
       </c>
       <c r="D33" t="n">
-        <v>101.8</v>
+        <v>105.7</v>
       </c>
       <c r="E33" t="n">
-        <v>101.1</v>
+        <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>101.9</v>
+        <v>100.5</v>
       </c>
       <c r="G33" t="n">
-        <v>102.4</v>
+        <v>103.2</v>
       </c>
       <c r="H33" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="I33" t="n">
-        <v>97.8</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.40000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>108.3</v>
+        <v>104.2</v>
       </c>
       <c r="D34" t="n">
-        <v>101.9</v>
+        <v>105.6</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4</v>
+        <v>100.1</v>
       </c>
       <c r="F34" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="H34" t="n">
         <v>99.2</v>
       </c>
       <c r="I34" t="n">
-        <v>98.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="C35" t="n">
-        <v>109.8</v>
+        <v>107</v>
       </c>
       <c r="D35" t="n">
-        <v>101.3</v>
+        <v>103</v>
       </c>
       <c r="E35" t="n">
-        <v>103.3</v>
+        <v>100.5</v>
       </c>
       <c r="F35" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="G35" t="n">
-        <v>101.5</v>
+        <v>102.4</v>
       </c>
       <c r="H35" t="n">
-        <v>100.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>98.8</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>110.8</v>
+        <v>107.5</v>
       </c>
       <c r="D36" t="n">
         <v>101.8</v>
       </c>
       <c r="E36" t="n">
-        <v>104.5</v>
+        <v>101.1</v>
       </c>
       <c r="F36" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="G36" t="n">
         <v>102.4</v>
       </c>
-      <c r="G36" t="n">
-        <v>101.8</v>
-      </c>
       <c r="H36" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I36" t="n">
-        <v>100.3</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>115.6</v>
+        <v>108.3</v>
       </c>
       <c r="D37" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="E37" t="n">
-        <v>106</v>
+        <v>102.4</v>
       </c>
       <c r="F37" t="n">
-        <v>102.8</v>
+        <v>102</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="H37" t="n">
-        <v>101.2</v>
+        <v>99.2</v>
       </c>
       <c r="I37" t="n">
-        <v>102.1</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>96.7</v>
+        <v>100.5</v>
       </c>
       <c r="C38" t="n">
-        <v>114</v>
+        <v>105.9</v>
       </c>
       <c r="D38" t="n">
-        <v>101.6</v>
+        <v>98.2</v>
       </c>
       <c r="E38" t="n">
-        <v>106.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>103.1</v>
+        <v>101.4</v>
       </c>
       <c r="G38" t="n">
-        <v>102.3</v>
+        <v>100.1</v>
       </c>
       <c r="H38" t="n">
         <v>101.7</v>
       </c>
       <c r="I38" t="n">
-        <v>102.6</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.7</v>
+        <v>100.8</v>
       </c>
       <c r="C39" t="n">
-        <v>115</v>
+        <v>103.6</v>
       </c>
       <c r="D39" t="n">
-        <v>99.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>105.9</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>103.2</v>
+        <v>101.1</v>
       </c>
       <c r="G39" t="n">
-        <v>102</v>
+        <v>99.7</v>
       </c>
       <c r="H39" t="n">
-        <v>101.9</v>
+        <v>101.1</v>
       </c>
       <c r="I39" t="n">
-        <v>102.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.2</v>
+        <v>101</v>
       </c>
       <c r="C40" t="n">
-        <v>114.9</v>
+        <v>98.8</v>
       </c>
       <c r="D40" t="n">
-        <v>97.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>104.4</v>
+        <v>95.7</v>
       </c>
       <c r="F40" t="n">
-        <v>103.2</v>
+        <v>101</v>
       </c>
       <c r="G40" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="H40" t="n">
-        <v>101.9</v>
+        <v>100.8</v>
       </c>
       <c r="I40" t="n">
-        <v>102.9</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.3</v>
+        <v>96.7</v>
       </c>
       <c r="C41" t="n">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="D41" t="n">
-        <v>96.09999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="E41" t="n">
-        <v>101.2</v>
+        <v>106.7</v>
       </c>
       <c r="F41" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="G41" t="n">
-        <v>101.9</v>
+        <v>102.3</v>
       </c>
       <c r="H41" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="I41" t="n">
-        <v>103.6</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C42" t="n">
-        <v>113.4</v>
+        <v>115</v>
       </c>
       <c r="D42" t="n">
-        <v>94.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>100.1</v>
+        <v>105.9</v>
       </c>
       <c r="F42" t="n">
-        <v>103.6</v>
+        <v>103.2</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9</v>
+        <v>102</v>
       </c>
       <c r="H42" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="I42" t="n">
-        <v>103.4</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.3</v>
+        <v>97.2</v>
       </c>
       <c r="C43" t="n">
-        <v>111.8</v>
+        <v>114.9</v>
       </c>
       <c r="D43" t="n">
-        <v>93.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>99.59999999999999</v>
+        <v>104.4</v>
       </c>
       <c r="F43" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="G43" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H43" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="I43" t="n">
-        <v>101.1</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="C44" t="n">
-        <v>109.1</v>
+        <v>114.1</v>
       </c>
       <c r="D44" t="n">
-        <v>95.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>100.1</v>
+        <v>101.2</v>
       </c>
       <c r="F44" t="n">
-        <v>102.3</v>
+        <v>103.4</v>
       </c>
       <c r="G44" t="n">
-        <v>100.5</v>
+        <v>101.9</v>
       </c>
       <c r="H44" t="n">
         <v>102</v>
       </c>
       <c r="I44" t="n">
-        <v>99.5</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>108.5</v>
+        <v>113.4</v>
       </c>
       <c r="D45" t="n">
-        <v>97.5</v>
+        <v>94.7</v>
       </c>
       <c r="E45" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="F45" t="n">
-        <v>102.2</v>
+        <v>103.6</v>
       </c>
       <c r="G45" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="H45" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="I45" t="n">
-        <v>99.5</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C46" t="n">
-        <v>107.8</v>
+        <v>111.8</v>
       </c>
       <c r="D46" t="n">
-        <v>97.8</v>
+        <v>93.7</v>
       </c>
       <c r="E46" t="n">
-        <v>100.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>101.4</v>
+        <v>103</v>
       </c>
       <c r="G46" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="I46" t="n">
-        <v>99.90000000000001</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="G47" t="n">
         <v>100.5</v>
       </c>
-      <c r="C47" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="D47" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F47" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>100.1</v>
-      </c>
       <c r="H47" t="n">
-        <v>101.7</v>
+        <v>102</v>
       </c>
       <c r="I47" t="n">
-        <v>100.4</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>103.6</v>
+        <v>108.5</v>
       </c>
       <c r="D48" t="n">
-        <v>98.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E48" t="n">
-        <v>98.09999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="F48" t="n">
-        <v>101.1</v>
+        <v>102.2</v>
       </c>
       <c r="G48" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="H48" t="n">
-        <v>101.1</v>
+        <v>101.9</v>
       </c>
       <c r="I48" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>98.8</v>
+        <v>107.8</v>
       </c>
       <c r="D49" t="n">
-        <v>99.40000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="E49" t="n">
-        <v>95.7</v>
+        <v>100.8</v>
       </c>
       <c r="F49" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="G49" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="H49" t="n">
-        <v>100.8</v>
+        <v>102.1</v>
       </c>
       <c r="I49" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
   </sheetData>
